--- a/Loader/Loader/Data/ExcelFile/RoomAction.xlsx
+++ b/Loader/Loader/Data/ExcelFile/RoomAction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>Id</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>String</t>
   </si>
   <si>
     <t>string</t>
@@ -443,10 +440,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -470,46 +467,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,46 +496,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,6 +548,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -599,15 +580,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,13 +625,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,19 +661,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,97 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,37 +763,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,6 +816,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -839,24 +899,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,56 +916,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -927,145 +924,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -1440,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1576,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1606,7 +1603,7 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1614,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1626,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>304</v>
@@ -1661,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1673,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>307</v>
@@ -1708,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1720,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>308</v>
@@ -1755,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1767,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>313</v>
@@ -1802,19 +1799,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="2">
         <v>315</v>
@@ -1849,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1861,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2">
         <v>316</v>
@@ -1896,19 +1893,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>47</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="3">
         <v>353</v>
@@ -1943,19 +1940,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>49</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
       </c>
       <c r="G11" s="3">
         <v>354</v>
@@ -1990,7 +1987,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2002,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="3">
         <v>356</v>
@@ -2037,19 +2034,19 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="3">
         <v>355</v>
@@ -2084,19 +2081,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>55</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
       </c>
       <c r="G14" s="3">
         <v>357</v>
@@ -2131,19 +2128,19 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
       </c>
       <c r="G15" s="3">
         <v>358</v>
@@ -2178,19 +2175,19 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>59</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
       </c>
       <c r="G16" s="3">
         <v>359</v>
@@ -2225,19 +2222,19 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>61</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
       </c>
       <c r="G17" s="3">
         <v>360</v>
@@ -2272,19 +2269,19 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>63</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
       </c>
       <c r="G18" s="3">
         <v>361</v>
@@ -2319,19 +2316,19 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>65</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="3">
         <v>362</v>
@@ -2366,19 +2363,19 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>67</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
       </c>
       <c r="G20" s="3">
         <v>363</v>
@@ -2413,19 +2410,19 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>69</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
       </c>
       <c r="G21" s="3">
         <v>364</v>
@@ -2460,7 +2457,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2472,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="3">
         <v>385</v>
@@ -2507,7 +2504,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2519,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3">
         <v>386</v>
@@ -2554,7 +2551,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2566,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="3">
         <v>387</v>
@@ -2596,7 +2593,7 @@
         <v>1000</v>
       </c>
       <c r="P24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:16">
@@ -2604,7 +2601,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2616,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="3">
         <v>388</v>
@@ -2646,7 +2643,7 @@
         <v>1000</v>
       </c>
       <c r="P25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:16">
@@ -2654,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2666,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="3">
         <v>389</v>
@@ -2696,7 +2693,7 @@
         <v>1000</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:16">
@@ -2704,19 +2701,19 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>83</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
       </c>
       <c r="G27" s="3">
         <v>390</v>
@@ -2746,7 +2743,7 @@
         <v>1000</v>
       </c>
       <c r="P27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:16">
@@ -2754,19 +2751,19 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>85</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>86</v>
       </c>
       <c r="G28" s="2">
         <v>315</v>
@@ -2796,7 +2793,7 @@
         <v>1000</v>
       </c>
       <c r="P28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="14.25" spans="1:15">
@@ -2804,7 +2801,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2816,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" s="4">
         <v>25005</v>
@@ -2851,7 +2848,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2863,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="4">
         <v>25006</v>
@@ -2898,7 +2895,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2910,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="4">
         <v>25007</v>
@@ -2945,7 +2942,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2957,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="4">
         <v>25008</v>
@@ -2992,7 +2989,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3004,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="4">
         <v>25009</v>
@@ -3039,7 +3036,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="4">
         <v>25010</v>
@@ -3086,7 +3083,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3098,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G35" s="4">
         <v>25011</v>
@@ -3133,7 +3130,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3145,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G36" s="4">
         <v>25012</v>
@@ -3180,7 +3177,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3192,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" s="4">
         <v>25013</v>
@@ -3227,7 +3224,7 @@
         <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3239,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="2">
         <v>336</v>
@@ -3274,7 +3271,7 @@
         <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3286,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G39" s="2">
         <v>340</v>
@@ -3321,7 +3318,7 @@
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3333,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G40" s="2">
         <v>342</v>
@@ -3368,7 +3365,7 @@
         <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3380,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G41" s="2">
         <v>338</v>
@@ -3415,7 +3412,7 @@
         <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3427,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G42" s="2">
         <v>345</v>
@@ -3462,7 +3459,7 @@
         <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3474,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="2">
         <v>346</v>
@@ -3509,7 +3506,7 @@
         <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3521,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="3">
         <v>366</v>
@@ -3556,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3568,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G45" s="3">
         <v>368</v>
@@ -3603,7 +3600,7 @@
         <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3615,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G46" s="3">
         <v>370</v>
@@ -3650,7 +3647,7 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3662,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G47" s="3">
         <v>371</v>
@@ -3692,7 +3689,7 @@
         <v>1000</v>
       </c>
       <c r="P47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3700,7 +3697,7 @@
         <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3712,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G48" s="3">
         <v>374</v>
@@ -3747,7 +3744,7 @@
         <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3759,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G49" s="3">
         <v>375</v>
@@ -3794,7 +3791,7 @@
         <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3806,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="3">
         <v>377</v>
@@ -3836,7 +3833,7 @@
         <v>1000</v>
       </c>
       <c r="P50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3844,7 +3841,7 @@
         <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3856,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G51" s="3">
         <v>380</v>
@@ -3886,7 +3883,7 @@
         <v>1000</v>
       </c>
       <c r="P51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3894,7 +3891,7 @@
         <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3906,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G52" s="3">
         <v>382</v>
@@ -3936,7 +3933,7 @@
         <v>1000</v>
       </c>
       <c r="P52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3944,7 +3941,7 @@
         <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3956,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G53" s="3">
         <v>383</v>
@@ -3986,7 +3983,7 @@
         <v>1000</v>
       </c>
       <c r="P53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
